--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.6350185</v>
+      </c>
+      <c r="H2">
+        <v>3.270037</v>
+      </c>
+      <c r="I2">
+        <v>0.1984264214432415</v>
+      </c>
+      <c r="J2">
+        <v>0.1471052488808206</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.5</v>
       </c>
-      <c r="G2">
-        <v>1.7949255</v>
-      </c>
-      <c r="H2">
-        <v>3.589851</v>
-      </c>
-      <c r="I2">
-        <v>0.1923194735835025</v>
-      </c>
-      <c r="J2">
-        <v>0.1518386156683738</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.445194666666667</v>
+        <v>0.1156085</v>
       </c>
       <c r="N2">
-        <v>7.335584</v>
+        <v>0.231217</v>
       </c>
       <c r="O2">
-        <v>0.8389131387469019</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P2">
-        <v>0.872970787141563</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q2">
-        <v>4.388942259664001</v>
+        <v>0.18902203625725</v>
       </c>
       <c r="R2">
-        <v>26.333653557984</v>
+        <v>0.7560881450290001</v>
       </c>
       <c r="S2">
-        <v>0.161339333226088</v>
+        <v>0.007011919493619136</v>
       </c>
       <c r="T2">
-        <v>0.1325506758385055</v>
+        <v>0.003625637646004562</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7949255</v>
+        <v>1.6350185</v>
       </c>
       <c r="H3">
-        <v>3.589851</v>
+        <v>3.270037</v>
       </c>
       <c r="I3">
-        <v>0.1923194735835025</v>
+        <v>0.1984264214432415</v>
       </c>
       <c r="J3">
-        <v>0.1518386156683738</v>
+        <v>0.1471052488808206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.34114</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N3">
-        <v>0.68228</v>
+        <v>7.335584</v>
       </c>
       <c r="O3">
-        <v>0.117040508902407</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P3">
-        <v>0.08119469542587825</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q3">
-        <v>0.61232088507</v>
+        <v>3.997938516101334</v>
       </c>
       <c r="R3">
-        <v>2.44928354028</v>
+        <v>23.987631096608</v>
       </c>
       <c r="S3">
-        <v>0.02250916906005615</v>
+        <v>0.148306639640628</v>
       </c>
       <c r="T3">
-        <v>0.01232849015308059</v>
+        <v>0.1150268773741928</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7949255</v>
+        <v>1.6350185</v>
       </c>
       <c r="H4">
-        <v>3.589851</v>
+        <v>3.270037</v>
       </c>
       <c r="I4">
-        <v>0.1923194735835025</v>
+        <v>0.1984264214432415</v>
       </c>
       <c r="J4">
-        <v>0.1518386156683738</v>
+        <v>0.1471052488808206</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05058633333333334</v>
+        <v>0.055189</v>
       </c>
       <c r="N4">
-        <v>0.151759</v>
+        <v>0.165567</v>
       </c>
       <c r="O4">
-        <v>0.0173554851288038</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P4">
-        <v>0.01806007179330459</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q4">
-        <v>0.09079869965150002</v>
+        <v>0.0902350359965</v>
       </c>
       <c r="R4">
-        <v>0.544792197909</v>
+        <v>0.5414102159790001</v>
       </c>
       <c r="S4">
-        <v>0.003337797763757853</v>
+        <v>0.003347338862915326</v>
       </c>
       <c r="T4">
-        <v>0.002742216299966814</v>
+        <v>0.002596201612061558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.6350185</v>
+      </c>
+      <c r="H5">
+        <v>3.270037</v>
+      </c>
+      <c r="I5">
+        <v>0.1984264214432415</v>
+      </c>
+      <c r="J5">
+        <v>0.1471052488808206</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.5</v>
       </c>
-      <c r="G5">
-        <v>1.7949255</v>
-      </c>
-      <c r="H5">
-        <v>3.589851</v>
-      </c>
-      <c r="I5">
-        <v>0.1923194735835025</v>
-      </c>
-      <c r="J5">
-        <v>0.1518386156683738</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.07779633333333333</v>
+        <v>0.317703</v>
       </c>
       <c r="N5">
-        <v>0.233389</v>
+        <v>0.635406</v>
       </c>
       <c r="O5">
-        <v>0.02669086722188727</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P5">
-        <v>0.02777444563925411</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q5">
-        <v>0.1396386225065</v>
+        <v>0.5194502825055001</v>
       </c>
       <c r="R5">
-        <v>0.837831735039</v>
+        <v>2.077801130022</v>
       </c>
       <c r="S5">
-        <v>0.00513317353360052</v>
+        <v>0.0192694123605209</v>
       </c>
       <c r="T5">
-        <v>0.004217233376820844</v>
+        <v>0.009963592270884817</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8790993333333333</v>
+        <v>1.6350185</v>
       </c>
       <c r="H6">
-        <v>2.637298</v>
+        <v>3.270037</v>
       </c>
       <c r="I6">
-        <v>0.0941921662009229</v>
+        <v>0.1984264214432415</v>
       </c>
       <c r="J6">
-        <v>0.1115488295823338</v>
+        <v>0.1471052488808206</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.445194666666667</v>
+        <v>0.311266</v>
       </c>
       <c r="N6">
-        <v>7.335584</v>
+        <v>0.933798</v>
       </c>
       <c r="O6">
-        <v>0.8389131387469019</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P6">
-        <v>0.872970787141563</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q6">
-        <v>2.149569001336889</v>
+        <v>0.5089256684210001</v>
       </c>
       <c r="R6">
-        <v>19.346121012032</v>
+        <v>3.053554010526</v>
       </c>
       <c r="S6">
-        <v>0.07901904579298608</v>
+        <v>0.01887899361293377</v>
       </c>
       <c r="T6">
-        <v>0.09737886956521004</v>
+        <v>0.01464257897370768</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8790993333333333</v>
+        <v>1.6350185</v>
       </c>
       <c r="H7">
-        <v>2.637298</v>
+        <v>3.270037</v>
       </c>
       <c r="I7">
-        <v>0.0941921662009229</v>
+        <v>0.1984264214432415</v>
       </c>
       <c r="J7">
-        <v>0.1115488295823338</v>
+        <v>0.1471052488808206</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.34114</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N7">
-        <v>0.68228</v>
+        <v>0.079739</v>
       </c>
       <c r="O7">
-        <v>0.117040508902407</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P7">
-        <v>0.08119469542587825</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q7">
-        <v>0.2998959465733333</v>
+        <v>0.04345824672383334</v>
       </c>
       <c r="R7">
-        <v>1.79937567944</v>
+        <v>0.2607494803430001</v>
       </c>
       <c r="S7">
-        <v>0.01102429906677612</v>
+        <v>0.001612117472624407</v>
       </c>
       <c r="T7">
-        <v>0.009057173243050795</v>
+        <v>0.001250361003969249</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>2.637298</v>
       </c>
       <c r="I8">
-        <v>0.0941921662009229</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J8">
-        <v>0.1115488295823338</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.05058633333333334</v>
+        <v>0.1156085</v>
       </c>
       <c r="N8">
-        <v>0.151759</v>
+        <v>0.231217</v>
       </c>
       <c r="O8">
-        <v>0.0173554851288038</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P8">
-        <v>0.01806007179330459</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q8">
-        <v>0.04447041190911111</v>
+        <v>0.1016313552776667</v>
       </c>
       <c r="R8">
-        <v>0.400233707182</v>
+        <v>0.609788131666</v>
       </c>
       <c r="S8">
-        <v>0.001634750739749933</v>
+        <v>0.003770094192957197</v>
       </c>
       <c r="T8">
-        <v>0.002014579870716049</v>
+        <v>0.002924091352034408</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,107 +983,107 @@
         <v>2.637298</v>
       </c>
       <c r="I9">
-        <v>0.0941921662009229</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J9">
-        <v>0.1115488295823338</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07779633333333333</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N9">
-        <v>0.233389</v>
+        <v>7.335584</v>
       </c>
       <c r="O9">
-        <v>0.02669086722188727</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P9">
-        <v>0.02777444563925411</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q9">
-        <v>0.0683907047691111</v>
+        <v>2.149569001336889</v>
       </c>
       <c r="R9">
-        <v>0.615516342922</v>
+        <v>19.346121012032</v>
       </c>
       <c r="S9">
-        <v>0.00251407060141077</v>
+        <v>0.0797399344637281</v>
       </c>
       <c r="T9">
-        <v>0.003098206903356953</v>
+        <v>0.09276963950108326</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.187206</v>
+        <v>0.8790993333333333</v>
       </c>
       <c r="H10">
-        <v>3.561618</v>
+        <v>2.637298</v>
       </c>
       <c r="I10">
-        <v>0.1272046293593665</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J10">
-        <v>0.1506444547864416</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>2.445194666666667</v>
+        <v>0.055189</v>
       </c>
       <c r="N10">
-        <v>7.335584</v>
+        <v>0.165567</v>
       </c>
       <c r="O10">
-        <v>0.8389131387469019</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P10">
-        <v>0.872970787141563</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q10">
-        <v>2.902949779434667</v>
+        <v>0.04851661310733333</v>
       </c>
       <c r="R10">
-        <v>26.126548014912</v>
+        <v>0.436649517966</v>
       </c>
       <c r="S10">
-        <v>0.1067136348790025</v>
+        <v>0.001799761509016333</v>
       </c>
       <c r="T10">
-        <v>0.1315082082734315</v>
+        <v>0.002093847047934541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,22 +1095,22 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.187206</v>
+        <v>0.8790993333333333</v>
       </c>
       <c r="H11">
-        <v>3.561618</v>
+        <v>2.637298</v>
       </c>
       <c r="I11">
-        <v>0.1272046293593665</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J11">
-        <v>0.1506444547864416</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,33 +1119,33 @@
         <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.34114</v>
+        <v>0.317703</v>
       </c>
       <c r="N11">
-        <v>0.68228</v>
+        <v>0.635406</v>
       </c>
       <c r="O11">
-        <v>0.117040508902407</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P11">
-        <v>0.08119469542587825</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q11">
-        <v>0.40500345484</v>
+        <v>0.279292495498</v>
       </c>
       <c r="R11">
-        <v>2.43002072904</v>
+        <v>1.675754972988</v>
       </c>
       <c r="S11">
-        <v>0.01488809455496232</v>
+        <v>0.01036057240933911</v>
       </c>
       <c r="T11">
-        <v>0.01223153062398261</v>
+        <v>0.008035677262618125</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,22 +1157,22 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.187206</v>
+        <v>0.8790993333333333</v>
       </c>
       <c r="H12">
-        <v>3.561618</v>
+        <v>2.637298</v>
       </c>
       <c r="I12">
-        <v>0.1272046293593665</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J12">
-        <v>0.1506444547864416</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,33 +1181,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.05058633333333334</v>
+        <v>0.311266</v>
       </c>
       <c r="N12">
-        <v>0.151759</v>
+        <v>0.933798</v>
       </c>
       <c r="O12">
-        <v>0.0173554851288038</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P12">
-        <v>0.01806007179330459</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q12">
-        <v>0.06005639845133334</v>
+        <v>0.2736337330893333</v>
       </c>
       <c r="R12">
-        <v>0.540507586062</v>
+        <v>2.462703597804</v>
       </c>
       <c r="S12">
-        <v>0.002207698053161485</v>
+        <v>0.01015065621528707</v>
       </c>
       <c r="T12">
-        <v>0.002720649668706362</v>
+        <v>0.0118092988679337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,22 +1219,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.187206</v>
+        <v>0.8790993333333333</v>
       </c>
       <c r="H13">
-        <v>3.561618</v>
+        <v>2.637298</v>
       </c>
       <c r="I13">
-        <v>0.1272046293593665</v>
+        <v>0.1066878049431689</v>
       </c>
       <c r="J13">
-        <v>0.1506444547864416</v>
+        <v>0.118640975213091</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1243,33 +1243,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07779633333333333</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N13">
-        <v>0.233389</v>
+        <v>0.079739</v>
       </c>
       <c r="O13">
-        <v>0.02669086722188727</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P13">
-        <v>0.02777444563925411</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q13">
-        <v>0.09236027371133333</v>
+        <v>0.02336616724688889</v>
       </c>
       <c r="R13">
-        <v>0.831242463402</v>
+        <v>0.210295505222</v>
       </c>
       <c r="S13">
-        <v>0.003395201872240235</v>
+        <v>0.0008667861528411663</v>
       </c>
       <c r="T13">
-        <v>0.004184066220321095</v>
+        <v>0.001008421181486965</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.561654</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H14">
-        <v>5.123308</v>
+        <v>5.004802</v>
       </c>
       <c r="I14">
-        <v>0.2744715303131375</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J14">
-        <v>0.2166986859239296</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.445194666666667</v>
+        <v>0.1156085</v>
       </c>
       <c r="N14">
-        <v>7.335584</v>
+        <v>0.231217</v>
       </c>
       <c r="O14">
-        <v>0.8389131387469019</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P14">
-        <v>0.872970787141563</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q14">
-        <v>6.263742698645333</v>
+        <v>0.1928658840056667</v>
       </c>
       <c r="R14">
-        <v>37.582456191872</v>
+        <v>1.157195304034</v>
       </c>
       <c r="S14">
-        <v>0.2302577729916596</v>
+        <v>0.007154510016350282</v>
       </c>
       <c r="T14">
-        <v>0.1891716224235551</v>
+        <v>0.005549049916560247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.561654</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H15">
-        <v>5.123308</v>
+        <v>5.004802</v>
       </c>
       <c r="I15">
-        <v>0.2744715303131375</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J15">
-        <v>0.2166986859239296</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.34114</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N15">
-        <v>0.68228</v>
+        <v>7.335584</v>
       </c>
       <c r="O15">
-        <v>0.117040508902407</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P15">
-        <v>0.08119469542587825</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q15">
-        <v>0.8738826455599999</v>
+        <v>4.079238386040889</v>
       </c>
       <c r="R15">
-        <v>3.49553058224</v>
+        <v>36.713145474368</v>
       </c>
       <c r="S15">
-        <v>0.03212428758707204</v>
+        <v>0.1513225215671249</v>
       </c>
       <c r="T15">
-        <v>0.01759478380278151</v>
+        <v>0.1760490006492632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,25 +1402,25 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.561654</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H16">
-        <v>5.123308</v>
+        <v>5.004802</v>
       </c>
       <c r="I16">
-        <v>0.2744715303131375</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J16">
-        <v>0.2166986859239296</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,105 +1429,105 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05058633333333334</v>
+        <v>0.055189</v>
       </c>
       <c r="N16">
-        <v>0.151759</v>
+        <v>0.165567</v>
       </c>
       <c r="O16">
-        <v>0.0173554851288038</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P16">
-        <v>0.01806007179330459</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q16">
-        <v>0.1295846831286667</v>
+        <v>0.09207000585933332</v>
       </c>
       <c r="R16">
-        <v>0.777508098772</v>
+        <v>0.8286300527339999</v>
       </c>
       <c r="S16">
-        <v>0.004763586562629679</v>
+        <v>0.003415408497578946</v>
       </c>
       <c r="T16">
-        <v>0.003913593825300932</v>
+        <v>0.003973494801572248</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.561654</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H17">
-        <v>5.123308</v>
+        <v>5.004802</v>
       </c>
       <c r="I17">
-        <v>0.2744715303131375</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J17">
-        <v>0.2166986859239296</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.07779633333333333</v>
+        <v>0.317703</v>
       </c>
       <c r="N17">
-        <v>0.233389</v>
+        <v>0.635406</v>
       </c>
       <c r="O17">
-        <v>0.02669086722188727</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P17">
-        <v>0.02777444563925411</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q17">
-        <v>0.1992872884686666</v>
+        <v>0.530013536602</v>
       </c>
       <c r="R17">
-        <v>1.195723730812</v>
+        <v>3.180081219612</v>
       </c>
       <c r="S17">
-        <v>0.007325883171776158</v>
+        <v>0.019661264489415</v>
       </c>
       <c r="T17">
-        <v>0.006018685872291983</v>
+        <v>0.01524930957188217</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.643444666666667</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H18">
-        <v>4.930334</v>
+        <v>5.004802</v>
       </c>
       <c r="I18">
-        <v>0.176088875642442</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J18">
-        <v>0.2085365351772862</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>2.445194666666667</v>
+        <v>0.311266</v>
       </c>
       <c r="N18">
-        <v>7.335584</v>
+        <v>0.933798</v>
       </c>
       <c r="O18">
-        <v>0.8389131387469019</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P18">
-        <v>0.872970787141563</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q18">
-        <v>4.018542133895111</v>
+        <v>0.5192748997773333</v>
       </c>
       <c r="R18">
-        <v>36.166879205056</v>
+        <v>4.673474097995999</v>
       </c>
       <c r="S18">
-        <v>0.1477232713636139</v>
+        <v>0.01926290640177225</v>
       </c>
       <c r="T18">
-        <v>0.1820463032614897</v>
+        <v>0.02241051356078544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.643444666666667</v>
+        <v>1.668267333333333</v>
       </c>
       <c r="H19">
-        <v>4.930334</v>
+        <v>5.004802</v>
       </c>
       <c r="I19">
-        <v>0.176088875642442</v>
+        <v>0.2024615115755526</v>
       </c>
       <c r="J19">
-        <v>0.2085365351772862</v>
+        <v>0.225145049982379</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.34114</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N19">
-        <v>0.68228</v>
+        <v>0.079739</v>
       </c>
       <c r="O19">
-        <v>0.117040508902407</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P19">
-        <v>0.08119469542587825</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q19">
-        <v>0.5606447135866667</v>
+        <v>0.04434198963088889</v>
       </c>
       <c r="R19">
-        <v>3.36386828152</v>
+        <v>0.399077906678</v>
       </c>
       <c r="S19">
-        <v>0.02060953161724407</v>
+        <v>0.001644900603311334</v>
       </c>
       <c r="T19">
-        <v>0.01693206045888769</v>
+        <v>0.001913681482315736</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.643444666666667</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H20">
-        <v>4.930334</v>
+        <v>1.711035</v>
       </c>
       <c r="I20">
-        <v>0.176088875642442</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J20">
-        <v>0.2085365351772862</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.05058633333333334</v>
+        <v>0.1156085</v>
       </c>
       <c r="N20">
-        <v>0.151759</v>
+        <v>0.231217</v>
       </c>
       <c r="O20">
-        <v>0.0173554851288038</v>
+        <v>0.03533763015337574</v>
       </c>
       <c r="P20">
-        <v>0.01806007179330459</v>
+        <v>0.02464655526290515</v>
       </c>
       <c r="Q20">
-        <v>0.08313583972288889</v>
+        <v>0.09890509489874999</v>
       </c>
       <c r="R20">
-        <v>0.7482225575060001</v>
+        <v>0.395620379595</v>
       </c>
       <c r="S20">
-        <v>0.003056107862560184</v>
+        <v>0.003668961443177743</v>
       </c>
       <c r="T20">
-        <v>0.003766184796828777</v>
+        <v>0.001897101748277287</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.643444666666667</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H21">
-        <v>4.930334</v>
+        <v>1.711035</v>
       </c>
       <c r="I21">
-        <v>0.176088875642442</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J21">
-        <v>0.2085365351772862</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.07779633333333333</v>
+        <v>2.445194666666667</v>
       </c>
       <c r="N21">
-        <v>0.233389</v>
+        <v>7.335584</v>
       </c>
       <c r="O21">
-        <v>0.02669086722188727</v>
+        <v>0.7474137696075424</v>
       </c>
       <c r="P21">
-        <v>0.02777444563925411</v>
+        <v>0.7819359149270289</v>
       </c>
       <c r="Q21">
-        <v>0.1278539691028889</v>
+        <v>2.09190682824</v>
       </c>
       <c r="R21">
-        <v>1.150685721926</v>
+        <v>12.55144096944</v>
       </c>
       <c r="S21">
-        <v>0.004699964799023838</v>
+        <v>0.07760091129167712</v>
       </c>
       <c r="T21">
-        <v>0.005791986660079938</v>
+        <v>0.06018739638968975</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.266711333333333</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H22">
-        <v>3.800134</v>
+        <v>1.711035</v>
       </c>
       <c r="I22">
-        <v>0.1357233249006286</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J22">
-        <v>0.1607328788616351</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>2.445194666666667</v>
+        <v>0.055189</v>
       </c>
       <c r="N22">
-        <v>7.335584</v>
+        <v>0.165567</v>
       </c>
       <c r="O22">
-        <v>0.8389131387469019</v>
+        <v>0.01686942111120423</v>
       </c>
       <c r="P22">
-        <v>0.872970787141563</v>
+        <v>0.01764859943349069</v>
       </c>
       <c r="Q22">
-        <v>3.097355796472889</v>
+        <v>0.04721515530749999</v>
       </c>
       <c r="R22">
-        <v>27.876202168256</v>
+        <v>0.283290931845</v>
       </c>
       <c r="S22">
-        <v>0.1138600804935519</v>
+        <v>0.001751482919400705</v>
       </c>
       <c r="T22">
-        <v>0.1403151077793711</v>
+        <v>0.001358453077226266</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1839,22 +1839,22 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.266711333333333</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H23">
-        <v>3.800134</v>
+        <v>1.711035</v>
       </c>
       <c r="I23">
-        <v>0.1357233249006286</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J23">
-        <v>0.1607328788616351</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1863,33 +1863,33 @@
         <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.34114</v>
+        <v>0.317703</v>
       </c>
       <c r="N23">
-        <v>0.68228</v>
+        <v>0.635406</v>
       </c>
       <c r="O23">
-        <v>0.117040508902407</v>
+        <v>0.0971111216962242</v>
       </c>
       <c r="P23">
-        <v>0.08119469542587825</v>
+        <v>0.06773104526648781</v>
       </c>
       <c r="Q23">
-        <v>0.4321259042533333</v>
+        <v>0.2718004763025</v>
       </c>
       <c r="R23">
-        <v>2.59275542552</v>
+        <v>1.08720190521</v>
       </c>
       <c r="S23">
-        <v>0.0158851270162963</v>
+        <v>0.01008265012851043</v>
       </c>
       <c r="T23">
-        <v>0.01305065714409505</v>
+        <v>0.005213413518322087</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.266711333333333</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H24">
-        <v>3.800134</v>
+        <v>1.711035</v>
       </c>
       <c r="I24">
-        <v>0.1357233249006286</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J24">
-        <v>0.1607328788616351</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,33 +1925,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.05058633333333334</v>
+        <v>0.311266</v>
       </c>
       <c r="N24">
-        <v>0.151759</v>
+        <v>0.933798</v>
       </c>
       <c r="O24">
-        <v>0.0173554851288038</v>
+        <v>0.09514354729384651</v>
       </c>
       <c r="P24">
-        <v>0.01806007179330459</v>
+        <v>0.09953811359627668</v>
       </c>
       <c r="Q24">
-        <v>0.06407828174511111</v>
+        <v>0.266293510155</v>
       </c>
       <c r="R24">
-        <v>0.576704535706</v>
+        <v>1.59776106093</v>
       </c>
       <c r="S24">
-        <v>0.002355544146944666</v>
+        <v>0.009878364934863468</v>
       </c>
       <c r="T24">
-        <v>0.002902847331785661</v>
+        <v>0.007661676340138632</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,22 +1963,22 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.266711333333333</v>
+        <v>0.8555174999999999</v>
       </c>
       <c r="H25">
-        <v>3.800134</v>
+        <v>1.711035</v>
       </c>
       <c r="I25">
-        <v>0.1357233249006286</v>
+        <v>0.103825905338116</v>
       </c>
       <c r="J25">
-        <v>0.1607328788616351</v>
+        <v>0.07697228793398818</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1987,28 +1987,772 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.07779633333333333</v>
+        <v>0.02657966666666667</v>
       </c>
       <c r="N25">
-        <v>0.233389</v>
+        <v>0.079739</v>
       </c>
       <c r="O25">
-        <v>0.02669086722188727</v>
+        <v>0.008124510137807135</v>
       </c>
       <c r="P25">
-        <v>0.02777444563925411</v>
+        <v>0.00849977151381081</v>
       </c>
       <c r="Q25">
-        <v>0.0985454971251111</v>
+        <v>0.0227393699775</v>
       </c>
       <c r="R25">
-        <v>0.886909474126</v>
+        <v>0.136436219865</v>
       </c>
       <c r="S25">
-        <v>0.003622573243835743</v>
+        <v>0.0008435346204865272</v>
       </c>
       <c r="T25">
-        <v>0.004464266606383302</v>
+        <v>0.0006542468603341562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.035477</v>
+      </c>
+      <c r="H26">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J26">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1156085</v>
+      </c>
+      <c r="N26">
+        <v>0.231217</v>
+      </c>
+      <c r="O26">
+        <v>0.03533763015337574</v>
+      </c>
+      <c r="P26">
+        <v>0.02464655526290515</v>
+      </c>
+      <c r="Q26">
+        <v>0.2353184427545</v>
+      </c>
+      <c r="R26">
+        <v>1.411910656527</v>
+      </c>
+      <c r="S26">
+        <v>0.008729320711119414</v>
+      </c>
+      <c r="T26">
+        <v>0.006770475721323423</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2.035477</v>
+      </c>
+      <c r="H27">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J27">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N27">
+        <v>7.335584</v>
+      </c>
+      <c r="O27">
+        <v>0.7474137696075424</v>
+      </c>
+      <c r="P27">
+        <v>0.7819359149270289</v>
+      </c>
+      <c r="Q27">
+        <v>4.977137504522667</v>
+      </c>
+      <c r="R27">
+        <v>44.794237540704</v>
+      </c>
+      <c r="S27">
+        <v>0.1846307879304036</v>
+      </c>
+      <c r="T27">
+        <v>0.2147999211724422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>2.035477</v>
+      </c>
+      <c r="H28">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J28">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.055189</v>
+      </c>
+      <c r="N28">
+        <v>0.165567</v>
+      </c>
+      <c r="O28">
+        <v>0.01686942111120423</v>
+      </c>
+      <c r="P28">
+        <v>0.01764859943349069</v>
+      </c>
+      <c r="Q28">
+        <v>0.112335940153</v>
+      </c>
+      <c r="R28">
+        <v>1.011023461377</v>
+      </c>
+      <c r="S28">
+        <v>0.004167189097047097</v>
+      </c>
+      <c r="T28">
+        <v>0.004848118234179819</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>2.035477</v>
+      </c>
+      <c r="H29">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J29">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.5</v>
+      </c>
+      <c r="M29">
+        <v>0.317703</v>
+      </c>
+      <c r="N29">
+        <v>0.635406</v>
+      </c>
+      <c r="O29">
+        <v>0.0971111216962242</v>
+      </c>
+      <c r="P29">
+        <v>0.06773104526648781</v>
+      </c>
+      <c r="Q29">
+        <v>0.6466771493310001</v>
+      </c>
+      <c r="R29">
+        <v>3.880062895986001</v>
+      </c>
+      <c r="S29">
+        <v>0.02398899196758691</v>
+      </c>
+      <c r="T29">
+        <v>0.0186059022311648</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>2.035477</v>
+      </c>
+      <c r="H30">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J30">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.311266</v>
+      </c>
+      <c r="N30">
+        <v>0.933798</v>
+      </c>
+      <c r="O30">
+        <v>0.09514354729384651</v>
+      </c>
+      <c r="P30">
+        <v>0.09953811359627668</v>
+      </c>
+      <c r="Q30">
+        <v>0.6335747838820001</v>
+      </c>
+      <c r="R30">
+        <v>5.702173054938001</v>
+      </c>
+      <c r="S30">
+        <v>0.02350294952764975</v>
+      </c>
+      <c r="T30">
+        <v>0.02734339035460355</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>2.035477</v>
+      </c>
+      <c r="H31">
+        <v>6.106431000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2470262061499763</v>
+      </c>
+      <c r="J31">
+        <v>0.2747027180513733</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M31">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N31">
+        <v>0.079739</v>
+      </c>
+      <c r="O31">
+        <v>0.008124510137807135</v>
+      </c>
+      <c r="P31">
+        <v>0.00849977151381081</v>
+      </c>
+      <c r="Q31">
+        <v>0.05410230016766668</v>
+      </c>
+      <c r="R31">
+        <v>0.4869207015090001</v>
+      </c>
+      <c r="S31">
+        <v>0.002006966916169518</v>
+      </c>
+      <c r="T31">
+        <v>0.002334910337659465</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H32">
+        <v>3.499631</v>
+      </c>
+      <c r="I32">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J32">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1156085</v>
+      </c>
+      <c r="N32">
+        <v>0.231217</v>
+      </c>
+      <c r="O32">
+        <v>0.03533763015337574</v>
+      </c>
+      <c r="P32">
+        <v>0.02464655526290515</v>
+      </c>
+      <c r="Q32">
+        <v>0.1348623634878334</v>
+      </c>
+      <c r="R32">
+        <v>0.8091741809270001</v>
+      </c>
+      <c r="S32">
+        <v>0.005002824296151967</v>
+      </c>
+      <c r="T32">
+        <v>0.003880198878705224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H33">
+        <v>3.499631</v>
+      </c>
+      <c r="I33">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J33">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2.445194666666667</v>
+      </c>
+      <c r="N33">
+        <v>7.335584</v>
+      </c>
+      <c r="O33">
+        <v>0.7474137696075424</v>
+      </c>
+      <c r="P33">
+        <v>0.7819359149270289</v>
+      </c>
+      <c r="Q33">
+        <v>2.852426352167111</v>
+      </c>
+      <c r="R33">
+        <v>25.671837169504</v>
+      </c>
+      <c r="S33">
+        <v>0.1058129747139805</v>
+      </c>
+      <c r="T33">
+        <v>0.1231030798403577</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H34">
+        <v>3.499631</v>
+      </c>
+      <c r="I34">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J34">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.055189</v>
+      </c>
+      <c r="N34">
+        <v>0.165567</v>
+      </c>
+      <c r="O34">
+        <v>0.01686942111120423</v>
+      </c>
+      <c r="P34">
+        <v>0.01764859943349069</v>
+      </c>
+      <c r="Q34">
+        <v>0.06438037841966668</v>
+      </c>
+      <c r="R34">
+        <v>0.579423405777</v>
+      </c>
+      <c r="S34">
+        <v>0.002388240225245815</v>
+      </c>
+      <c r="T34">
+        <v>0.002778484660516258</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H35">
+        <v>3.499631</v>
+      </c>
+      <c r="I35">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J35">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.317703</v>
+      </c>
+      <c r="N35">
+        <v>0.635406</v>
+      </c>
+      <c r="O35">
+        <v>0.0971111216962242</v>
+      </c>
+      <c r="P35">
+        <v>0.06773104526648781</v>
+      </c>
+      <c r="Q35">
+        <v>0.3706144225310001</v>
+      </c>
+      <c r="R35">
+        <v>2.223686535186</v>
+      </c>
+      <c r="S35">
+        <v>0.01374823034085183</v>
+      </c>
+      <c r="T35">
+        <v>0.0106631504116158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H36">
+        <v>3.499631</v>
+      </c>
+      <c r="I36">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J36">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M36">
+        <v>0.311266</v>
+      </c>
+      <c r="N36">
+        <v>0.933798</v>
+      </c>
+      <c r="O36">
+        <v>0.09514354729384651</v>
+      </c>
+      <c r="P36">
+        <v>0.09953811359627668</v>
+      </c>
+      <c r="Q36">
+        <v>0.3631053809486667</v>
+      </c>
+      <c r="R36">
+        <v>3.267948428538</v>
+      </c>
+      <c r="S36">
+        <v>0.0134696766013402</v>
+      </c>
+      <c r="T36">
+        <v>0.01567065549910768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.166543666666667</v>
+      </c>
+      <c r="H37">
+        <v>3.499631</v>
+      </c>
+      <c r="I37">
+        <v>0.1415721505499444</v>
+      </c>
+      <c r="J37">
+        <v>0.1574337199383479</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M37">
+        <v>0.02657966666666667</v>
+      </c>
+      <c r="N37">
+        <v>0.079739</v>
+      </c>
+      <c r="O37">
+        <v>0.008124510137807135</v>
+      </c>
+      <c r="P37">
+        <v>0.00849977151381081</v>
+      </c>
+      <c r="Q37">
+        <v>0.03100634181211112</v>
+      </c>
+      <c r="R37">
+        <v>0.2790570763090001</v>
+      </c>
+      <c r="S37">
+        <v>0.001150204372374182</v>
+      </c>
+      <c r="T37">
+        <v>0.001338150648045238</v>
       </c>
     </row>
   </sheetData>
